--- a/test/wsj.xlsx
+++ b/test/wsj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,164 +434,124 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Issues traded</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Advances</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Declines</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Unchanged</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>New highs</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>New lows</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Closing Arms (TRIN)†</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Block trades</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Adv. volume</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Decl. volume</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Total volume</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Issues traded</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>latestClose</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Advances</t>
+          <t>4,813</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Declines</t>
+          <t>1,696</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Scraped @</t>
+          <t>2,811</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Unchanged</t>
+          <t>306</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>New highs</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>New lows</t>
+          <t>216</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Closing Arms (TRIN)†</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Block trades</t>
+          <t>21,021</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Adv. volume</t>
+          <t>1,359,398,333</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Decl. volume</t>
+          <t>2,842,883,736</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>Total volume</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4,813</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1,696</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2,811</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sep 06, 2022</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>21,021</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1,359,398,333</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2,842,883,736</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>4,257,416,449</t>
         </is>

--- a/test/wsj.xlsx
+++ b/test/wsj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,14 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Issues traded</t>
+          <t>advances</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -451,109 +449,27 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Declines</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Unchanged</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>New highs</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>New lows</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Closing Arms (TRIN)†</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Block trades</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Adv. volume</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Decl. volume</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Total volume</t>
+          <t>1,339</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>latestClose</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4,813</t>
+          <t>declines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,696</t>
+          <t>Declines</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2,811</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>21,021</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1,359,398,333</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2,842,883,736</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>4,257,416,449</t>
+          <t>1,828</t>
         </is>
       </c>
     </row>

--- a/test/wsj.xlsx
+++ b/test/wsj.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="stock_data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,388 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>advances</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Advances</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1,339</t>
-        </is>
+      <c r="F1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>declines</t>
+          <t>Scraped On</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Exchange</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Issues traded</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Advances</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Declines</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Unchanged</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>New highs</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>New lows</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Adv. volume*</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Decl. volume*</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Total volume*</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Closing Arms (TRIN)†</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Block trades*</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Adv. volume</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Decl. volume</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Exchange</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Total volume</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Issues traded</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Advances</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Declines</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Unchanged</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>New highs</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>New lows</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Closing Arms (TRIN)†</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Block trades</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Adv. volume</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Decl. volume</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Total volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>latestClose</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sep 09, 2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NYSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3,342</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1,339</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>1,828</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>294,788,518</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>478,710,051</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>789,929,201</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3,890</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1,485,040,244</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2,080,024,643</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>3,665,857,390</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4,813</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1,696</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2,811</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>21,021</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1,359,398,333</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2,842,883,736</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>4,257,416,449</t>
         </is>
       </c>
     </row>
